--- a/biology/Mycologie/Holomorphe_(mycologie)/Holomorphe_(mycologie).xlsx
+++ b/biology/Mycologie/Holomorphe_(mycologie)/Holomorphe_(mycologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le qualificatif « holomorphe » désigne - dans le domaine de la mycologie - l'état d'une colonie fongique où coexistent deux stades (ou formes) différents de reproduction d'un même champignon : un stade dit « téléomorphe »  de reproduction sexuée, et un stade dit asexué (ou « anamorphe »).
 </t>
@@ -511,7 +523,9 @@
           <t>Origine et enjeux de cette classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les champignons ont été classés depuis plusieurs siècles essentiellement sur la base des caractéristiques physiques de leurs organes reproducteurs (pied, chapeau, etc.) qui sont relativement stables au cours de l'évolution et dans une population (alors que la forme, taille et couleur du mycélium peut être plus variable); 
 Mais de nombreux champignons ne se reproduisent que de manière asexuée. Ces espèces difficiles à classer sont le plus souvent des ascomycètes et des basidiomycètes. 
